--- a/uploads/mitch/mitch-catalogue.xlsx
+++ b/uploads/mitch/mitch-catalogue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9FB756-C839-47FF-878F-338B0220507E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A36B167-F032-4320-BA14-3865E00672D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D8950F7B-54FE-488A-B929-74F90083A4FF}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2849" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2850" uniqueCount="653">
   <si>
     <t>tablets</t>
   </si>
@@ -1982,12 +1982,18 @@
   </si>
   <si>
     <t>200mcg</t>
+  </si>
+  <si>
+    <t>xpiry</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2005,7 +2011,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2021,6 +2027,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2042,9 +2054,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2359,10 +2371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A300584F-DB09-4179-8891-79D4FA51BCDD}">
-  <dimension ref="A1:J356"/>
+  <dimension ref="A1:K356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A248" workbookViewId="0">
-      <selection activeCell="C258" sqref="C258"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2371,10 +2383,10 @@
     <col min="2" max="3" width="44" customWidth="1"/>
     <col min="4" max="7" width="28" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="14.7109375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>648</v>
       </c>
@@ -2399,11 +2411,14 @@
       <c r="I1" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>641</v>
       </c>
@@ -2434,8 +2449,12 @@
       <c r="J2" s="5">
         <v>47339</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" t="str">
+        <f>TEXT(J2, "yyyy-mm-dd")</f>
+        <v>2029-08-09</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>639</v>
       </c>
@@ -2466,8 +2485,12 @@
       <c r="J3" s="5">
         <v>47339</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K66" si="0">TEXT(J3, "yyyy-mm-dd")</f>
+        <v>2029-08-09</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>638</v>
       </c>
@@ -2498,8 +2521,12 @@
       <c r="J4" s="5">
         <v>47339</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-08-09</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>636</v>
       </c>
@@ -2530,8 +2557,12 @@
       <c r="J5" s="5">
         <v>47340</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-08-10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>634</v>
       </c>
@@ -2562,8 +2593,12 @@
       <c r="J6" s="5">
         <v>47341</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-08-11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>632</v>
       </c>
@@ -2594,8 +2629,12 @@
       <c r="J7" s="5">
         <v>47342</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-08-12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>630</v>
       </c>
@@ -2626,8 +2665,12 @@
       <c r="J8" s="5">
         <v>47343</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-08-13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>629</v>
       </c>
@@ -2658,8 +2701,12 @@
       <c r="J9" s="5">
         <v>47344</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-08-14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>627</v>
       </c>
@@ -2690,8 +2737,12 @@
       <c r="J10" s="5">
         <v>47345</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-08-15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>625</v>
       </c>
@@ -2722,8 +2773,12 @@
       <c r="J11" s="5">
         <v>47346</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-08-16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>624</v>
       </c>
@@ -2754,8 +2809,12 @@
       <c r="J12" s="5">
         <v>47347</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-08-17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>621</v>
       </c>
@@ -2786,8 +2845,12 @@
       <c r="J13" s="5">
         <v>47348</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-08-18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>618</v>
       </c>
@@ -2818,8 +2881,12 @@
       <c r="J14" s="5">
         <v>47349</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-08-19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>615</v>
       </c>
@@ -2850,8 +2917,12 @@
       <c r="J15" s="5">
         <v>47350</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-08-20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>613</v>
       </c>
@@ -2882,8 +2953,12 @@
       <c r="J16" s="5">
         <v>47351</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-08-21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>612</v>
       </c>
@@ -2914,8 +2989,12 @@
       <c r="J17" s="5">
         <v>47352</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-08-22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>610</v>
       </c>
@@ -2946,8 +3025,12 @@
       <c r="J18" s="5">
         <v>47353</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-08-23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>608</v>
       </c>
@@ -2978,8 +3061,12 @@
       <c r="J19" s="5">
         <v>47354</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-08-24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>606</v>
       </c>
@@ -3010,8 +3097,12 @@
       <c r="J20" s="5">
         <v>47355</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-08-25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>606</v>
       </c>
@@ -3042,8 +3133,12 @@
       <c r="J21" s="5">
         <v>47356</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-08-26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>604</v>
       </c>
@@ -3074,8 +3169,12 @@
       <c r="J22" s="5">
         <v>47357</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-08-27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>602</v>
       </c>
@@ -3106,8 +3205,12 @@
       <c r="J23" s="5">
         <v>47358</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-08-28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>600</v>
       </c>
@@ -3138,8 +3241,12 @@
       <c r="J24" s="5">
         <v>47359</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-08-29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>598</v>
       </c>
@@ -3170,8 +3277,12 @@
       <c r="J25" s="5">
         <v>47360</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-08-30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>596</v>
       </c>
@@ -3202,8 +3313,12 @@
       <c r="J26" s="5">
         <v>47361</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-08-31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>594</v>
       </c>
@@ -3234,8 +3349,12 @@
       <c r="J27" s="5">
         <v>47362</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-09-01</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>592</v>
       </c>
@@ -3266,8 +3385,12 @@
       <c r="J28" s="5">
         <v>47363</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-09-02</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>589</v>
       </c>
@@ -3298,8 +3421,12 @@
       <c r="J29" s="5">
         <v>47364</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-09-03</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>588</v>
       </c>
@@ -3330,8 +3457,12 @@
       <c r="J30" s="5">
         <v>47365</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-09-04</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>586</v>
       </c>
@@ -3362,8 +3493,12 @@
       <c r="J31" s="5">
         <v>47366</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-09-05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>584</v>
       </c>
@@ -3394,8 +3529,12 @@
       <c r="J32" s="5">
         <v>47367</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-09-06</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>583</v>
       </c>
@@ -3426,8 +3565,12 @@
       <c r="J33" s="5">
         <v>47368</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-09-07</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>580</v>
       </c>
@@ -3458,8 +3601,12 @@
       <c r="J34" s="5">
         <v>47369</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-09-08</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>578</v>
       </c>
@@ -3490,8 +3637,12 @@
       <c r="J35" s="5">
         <v>47370</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-09-09</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>577</v>
       </c>
@@ -3522,8 +3673,12 @@
       <c r="J36" s="5">
         <v>47371</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-09-10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>575</v>
       </c>
@@ -3554,8 +3709,12 @@
       <c r="J37" s="5">
         <v>47372</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-09-11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>573</v>
       </c>
@@ -3586,8 +3745,12 @@
       <c r="J38" s="5">
         <v>47373</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-09-12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>572</v>
       </c>
@@ -3618,8 +3781,12 @@
       <c r="J39" s="5">
         <v>47374</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-09-13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>570</v>
       </c>
@@ -3650,8 +3817,12 @@
       <c r="J40" s="5">
         <v>47375</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-09-14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>569</v>
       </c>
@@ -3682,8 +3853,12 @@
       <c r="J41" s="5">
         <v>47376</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-09-15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>568</v>
       </c>
@@ -3714,8 +3889,12 @@
       <c r="J42" s="5">
         <v>47377</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-09-16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>566</v>
       </c>
@@ -3746,8 +3925,12 @@
       <c r="J43" s="5">
         <v>47378</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K43" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-09-17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>565</v>
       </c>
@@ -3778,8 +3961,12 @@
       <c r="J44" s="5">
         <v>47379</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K44" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-09-18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>564</v>
       </c>
@@ -3810,8 +3997,12 @@
       <c r="J45" s="5">
         <v>47380</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K45" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-09-19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>563</v>
       </c>
@@ -3842,8 +4033,12 @@
       <c r="J46" s="5">
         <v>47381</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K46" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-09-20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>561</v>
       </c>
@@ -3874,8 +4069,12 @@
       <c r="J47" s="5">
         <v>47382</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K47" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-09-21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>559</v>
       </c>
@@ -3906,8 +4105,12 @@
       <c r="J48" s="5">
         <v>47383</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K48" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-09-22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>556</v>
       </c>
@@ -3938,8 +4141,12 @@
       <c r="J49" s="5">
         <v>47384</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K49" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-09-23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>555</v>
       </c>
@@ -3970,8 +4177,12 @@
       <c r="J50" s="5">
         <v>47385</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K50" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-09-24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>553</v>
       </c>
@@ -4002,8 +4213,12 @@
       <c r="J51" s="5">
         <v>47386</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K51" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-09-25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>551</v>
       </c>
@@ -4034,8 +4249,12 @@
       <c r="J52" s="5">
         <v>47387</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K52" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-09-26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>550</v>
       </c>
@@ -4066,8 +4285,12 @@
       <c r="J53" s="5">
         <v>47388</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K53" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-09-27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>549</v>
       </c>
@@ -4098,8 +4321,12 @@
       <c r="J54" s="5">
         <v>47389</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K54" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-09-28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>546</v>
       </c>
@@ -4130,8 +4357,12 @@
       <c r="J55" s="5">
         <v>47390</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K55" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-09-29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>545</v>
       </c>
@@ -4162,8 +4393,12 @@
       <c r="J56" s="5">
         <v>47391</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K56" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-09-30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>544</v>
       </c>
@@ -4194,8 +4429,12 @@
       <c r="J57" s="5">
         <v>47392</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K57" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-10-01</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>542</v>
       </c>
@@ -4226,8 +4465,12 @@
       <c r="J58" s="5">
         <v>47393</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K58" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-10-02</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>541</v>
       </c>
@@ -4258,8 +4501,12 @@
       <c r="J59" s="5">
         <v>47394</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K59" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-10-03</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>540</v>
       </c>
@@ -4290,8 +4537,12 @@
       <c r="J60" s="5">
         <v>47395</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K60" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-10-04</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>537</v>
       </c>
@@ -4322,8 +4573,12 @@
       <c r="J61" s="5">
         <v>47396</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K61" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-10-05</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>536</v>
       </c>
@@ -4354,8 +4609,12 @@
       <c r="J62" s="5">
         <v>47397</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K62" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-10-06</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>535</v>
       </c>
@@ -4386,8 +4645,12 @@
       <c r="J63" s="5">
         <v>47398</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K63" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-10-07</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>534</v>
       </c>
@@ -4418,8 +4681,12 @@
       <c r="J64" s="5">
         <v>47399</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K64" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-10-08</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>532</v>
       </c>
@@ -4450,8 +4717,12 @@
       <c r="J65" s="5">
         <v>47400</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K65" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-10-09</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>530</v>
       </c>
@@ -4482,8 +4753,12 @@
       <c r="J66" s="5">
         <v>47401</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K66" t="str">
+        <f t="shared" si="0"/>
+        <v>2029-10-10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>528</v>
       </c>
@@ -4514,8 +4789,12 @@
       <c r="J67" s="5">
         <v>47402</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K67" t="str">
+        <f t="shared" ref="K67:K130" si="1">TEXT(J67, "yyyy-mm-dd")</f>
+        <v>2029-10-11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>529</v>
       </c>
@@ -4546,8 +4825,12 @@
       <c r="J68" s="5">
         <v>47403</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K68" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-10-12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>528</v>
       </c>
@@ -4578,8 +4861,12 @@
       <c r="J69" s="5">
         <v>47404</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K69" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-10-13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>526</v>
       </c>
@@ -4610,8 +4897,12 @@
       <c r="J70" s="5">
         <v>47405</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K70" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-10-14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>524</v>
       </c>
@@ -4642,8 +4933,12 @@
       <c r="J71" s="5">
         <v>47406</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K71" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-10-15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>522</v>
       </c>
@@ -4674,8 +4969,12 @@
       <c r="J72" s="5">
         <v>47407</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K72" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-10-16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>520</v>
       </c>
@@ -4706,8 +5005,12 @@
       <c r="J73" s="5">
         <v>47408</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K73" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-10-17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>519</v>
       </c>
@@ -4738,8 +5041,12 @@
       <c r="J74" s="5">
         <v>47409</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K74" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-10-18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>518</v>
       </c>
@@ -4770,8 +5077,12 @@
       <c r="J75" s="5">
         <v>47410</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K75" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-10-19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>516</v>
       </c>
@@ -4802,8 +5113,12 @@
       <c r="J76" s="5">
         <v>47411</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K76" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-10-20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>514</v>
       </c>
@@ -4834,8 +5149,12 @@
       <c r="J77" s="5">
         <v>47412</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K77" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-10-21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>512</v>
       </c>
@@ -4866,8 +5185,12 @@
       <c r="J78" s="5">
         <v>47413</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K78" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-10-22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>510</v>
       </c>
@@ -4898,8 +5221,12 @@
       <c r="J79" s="5">
         <v>47414</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K79" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-10-23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>508</v>
       </c>
@@ -4930,8 +5257,12 @@
       <c r="J80" s="5">
         <v>47415</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K80" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-10-24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>506</v>
       </c>
@@ -4962,8 +5293,12 @@
       <c r="J81" s="5">
         <v>47416</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K81" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-10-25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>503</v>
       </c>
@@ -4994,8 +5329,12 @@
       <c r="J82" s="5">
         <v>47417</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K82" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-10-26</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>500</v>
       </c>
@@ -5026,8 +5365,12 @@
       <c r="J83" s="5">
         <v>47418</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K83" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-10-27</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>498</v>
       </c>
@@ -5058,8 +5401,12 @@
       <c r="J84" s="5">
         <v>47419</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K84" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-10-28</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>495</v>
       </c>
@@ -5090,8 +5437,12 @@
       <c r="J85" s="5">
         <v>47420</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K85" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-10-29</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>493</v>
       </c>
@@ -5122,8 +5473,12 @@
       <c r="J86" s="5">
         <v>47421</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K86" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-10-30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>491</v>
       </c>
@@ -5154,8 +5509,12 @@
       <c r="J87" s="5">
         <v>47422</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K87" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-10-31</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>489</v>
       </c>
@@ -5186,8 +5545,12 @@
       <c r="J88" s="5">
         <v>47423</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K88" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-11-01</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>487</v>
       </c>
@@ -5218,8 +5581,12 @@
       <c r="J89" s="5">
         <v>47424</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K89" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-11-02</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>485</v>
       </c>
@@ -5250,8 +5617,12 @@
       <c r="J90" s="5">
         <v>47425</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K90" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-11-03</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>483</v>
       </c>
@@ -5282,8 +5653,12 @@
       <c r="J91" s="5">
         <v>47426</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K91" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-11-04</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>481</v>
       </c>
@@ -5314,8 +5689,12 @@
       <c r="J92" s="5">
         <v>47427</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K92" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-11-05</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>479</v>
       </c>
@@ -5346,8 +5725,12 @@
       <c r="J93" s="5">
         <v>47428</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K93" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-11-06</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>477</v>
       </c>
@@ -5378,8 +5761,12 @@
       <c r="J94" s="5">
         <v>47429</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K94" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-11-07</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>475</v>
       </c>
@@ -5410,8 +5797,12 @@
       <c r="J95" s="5">
         <v>47430</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K95" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-11-08</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>474</v>
       </c>
@@ -5442,8 +5833,12 @@
       <c r="J96" s="5">
         <v>47431</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K96" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-11-09</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>472</v>
       </c>
@@ -5474,8 +5869,12 @@
       <c r="J97" s="5">
         <v>47432</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K97" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-11-10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>470</v>
       </c>
@@ -5506,8 +5905,12 @@
       <c r="J98" s="5">
         <v>47433</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K98" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-11-11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>469</v>
       </c>
@@ -5538,8 +5941,12 @@
       <c r="J99" s="5">
         <v>47434</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K99" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-11-12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>467</v>
       </c>
@@ -5570,8 +5977,12 @@
       <c r="J100" s="5">
         <v>47435</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K100" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-11-13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>466</v>
       </c>
@@ -5602,8 +6013,12 @@
       <c r="J101" s="5">
         <v>47436</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K101" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-11-14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>464</v>
       </c>
@@ -5634,8 +6049,12 @@
       <c r="J102" s="5">
         <v>47437</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K102" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-11-15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>462</v>
       </c>
@@ -5666,8 +6085,12 @@
       <c r="J103" s="5">
         <v>47438</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K103" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-11-16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>461</v>
       </c>
@@ -5698,8 +6121,12 @@
       <c r="J104" s="5">
         <v>47439</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K104" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-11-17</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>459</v>
       </c>
@@ -5730,8 +6157,12 @@
       <c r="J105" s="5">
         <v>47440</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K105" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-11-18</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>457</v>
       </c>
@@ -5762,8 +6193,12 @@
       <c r="J106" s="5">
         <v>47441</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K106" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-11-19</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>456</v>
       </c>
@@ -5794,8 +6229,12 @@
       <c r="J107" s="5">
         <v>47442</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K107" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-11-20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>454</v>
       </c>
@@ -5826,8 +6265,12 @@
       <c r="J108" s="5">
         <v>47443</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K108" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-11-21</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>453</v>
       </c>
@@ -5858,8 +6301,12 @@
       <c r="J109" s="5">
         <v>47444</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K109" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-11-22</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>451</v>
       </c>
@@ -5890,8 +6337,12 @@
       <c r="J110" s="5">
         <v>47445</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K110" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-11-23</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>449</v>
       </c>
@@ -5922,8 +6373,12 @@
       <c r="J111" s="5">
         <v>47446</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K111" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-11-24</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>449</v>
       </c>
@@ -5954,8 +6409,12 @@
       <c r="J112" s="5">
         <v>47447</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K112" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-11-25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>448</v>
       </c>
@@ -5986,8 +6445,12 @@
       <c r="J113" s="5">
         <v>47448</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K113" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-11-26</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>446</v>
       </c>
@@ -6018,8 +6481,12 @@
       <c r="J114" s="5">
         <v>47449</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K114" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-11-27</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>445</v>
       </c>
@@ -6050,8 +6517,12 @@
       <c r="J115" s="5">
         <v>47450</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K115" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-11-28</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>443</v>
       </c>
@@ -6082,8 +6553,12 @@
       <c r="J116" s="5">
         <v>47451</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K116" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-11-29</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>443</v>
       </c>
@@ -6114,8 +6589,12 @@
       <c r="J117" s="5">
         <v>47452</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K117" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-11-30</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>442</v>
       </c>
@@ -6146,8 +6625,12 @@
       <c r="J118" s="5">
         <v>47453</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K118" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-12-01</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>440</v>
       </c>
@@ -6178,8 +6661,12 @@
       <c r="J119" s="5">
         <v>47454</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K119" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-12-02</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>438</v>
       </c>
@@ -6210,8 +6697,12 @@
       <c r="J120" s="5">
         <v>47455</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K120" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-12-03</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>435</v>
       </c>
@@ -6242,8 +6733,12 @@
       <c r="J121" s="5">
         <v>47456</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K121" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-12-04</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>434</v>
       </c>
@@ -6274,8 +6769,12 @@
       <c r="J122" s="5">
         <v>47457</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K122" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-12-05</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>434</v>
       </c>
@@ -6306,8 +6805,12 @@
       <c r="J123" s="5">
         <v>47458</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K123" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-12-06</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>432</v>
       </c>
@@ -6338,8 +6841,12 @@
       <c r="J124" s="5">
         <v>47459</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K124" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-12-07</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>432</v>
       </c>
@@ -6370,8 +6877,12 @@
       <c r="J125" s="5">
         <v>47460</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K125" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-12-08</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>430</v>
       </c>
@@ -6402,8 +6913,12 @@
       <c r="J126" s="5">
         <v>47461</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K126" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-12-09</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>428</v>
       </c>
@@ -6434,8 +6949,12 @@
       <c r="J127" s="5">
         <v>47462</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K127" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-12-10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>425</v>
       </c>
@@ -6466,8 +6985,12 @@
       <c r="J128" s="5">
         <v>47463</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K128" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-12-11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>425</v>
       </c>
@@ -6498,8 +7021,12 @@
       <c r="J129" s="5">
         <v>47464</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K129" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-12-12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>423</v>
       </c>
@@ -6530,8 +7057,12 @@
       <c r="J130" s="5">
         <v>47465</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K130" t="str">
+        <f t="shared" si="1"/>
+        <v>2029-12-13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>422</v>
       </c>
@@ -6562,8 +7093,12 @@
       <c r="J131" s="5">
         <v>47466</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K131" t="str">
+        <f t="shared" ref="K131:K194" si="2">TEXT(J131, "yyyy-mm-dd")</f>
+        <v>2029-12-14</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>421</v>
       </c>
@@ -6594,8 +7129,12 @@
       <c r="J132" s="5">
         <v>47467</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K132" t="str">
+        <f t="shared" si="2"/>
+        <v>2029-12-15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>421</v>
       </c>
@@ -6626,8 +7165,12 @@
       <c r="J133" s="5">
         <v>47468</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K133" t="str">
+        <f t="shared" si="2"/>
+        <v>2029-12-16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>419</v>
       </c>
@@ -6658,8 +7201,12 @@
       <c r="J134" s="5">
         <v>47469</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K134" t="str">
+        <f t="shared" si="2"/>
+        <v>2029-12-17</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>417</v>
       </c>
@@ -6690,8 +7237,12 @@
       <c r="J135" s="5">
         <v>47470</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K135" t="str">
+        <f t="shared" si="2"/>
+        <v>2029-12-18</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>414</v>
       </c>
@@ -6722,8 +7273,12 @@
       <c r="J136" s="5">
         <v>47471</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K136" t="str">
+        <f t="shared" si="2"/>
+        <v>2029-12-19</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>412</v>
       </c>
@@ -6754,8 +7309,12 @@
       <c r="J137" s="5">
         <v>47472</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K137" t="str">
+        <f t="shared" si="2"/>
+        <v>2029-12-20</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>410</v>
       </c>
@@ -6786,8 +7345,12 @@
       <c r="J138" s="5">
         <v>47473</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K138" t="str">
+        <f t="shared" si="2"/>
+        <v>2029-12-21</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>408</v>
       </c>
@@ -6818,8 +7381,12 @@
       <c r="J139" s="5">
         <v>47474</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K139" t="str">
+        <f t="shared" si="2"/>
+        <v>2029-12-22</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>406</v>
       </c>
@@ -6850,8 +7417,12 @@
       <c r="J140" s="5">
         <v>47475</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K140" t="str">
+        <f t="shared" si="2"/>
+        <v>2029-12-23</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>404</v>
       </c>
@@ -6882,8 +7453,12 @@
       <c r="J141" s="5">
         <v>47476</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K141" t="str">
+        <f t="shared" si="2"/>
+        <v>2029-12-24</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>403</v>
       </c>
@@ -6914,8 +7489,12 @@
       <c r="J142" s="5">
         <v>47477</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K142" t="str">
+        <f t="shared" si="2"/>
+        <v>2029-12-25</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>401</v>
       </c>
@@ -6946,8 +7525,12 @@
       <c r="J143" s="5">
         <v>47478</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K143" t="str">
+        <f t="shared" si="2"/>
+        <v>2029-12-26</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>399</v>
       </c>
@@ -6978,8 +7561,12 @@
       <c r="J144" s="5">
         <v>47479</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K144" t="str">
+        <f t="shared" si="2"/>
+        <v>2029-12-27</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>396</v>
       </c>
@@ -7010,8 +7597,12 @@
       <c r="J145" s="5">
         <v>47480</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K145" t="str">
+        <f t="shared" si="2"/>
+        <v>2029-12-28</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>394</v>
       </c>
@@ -7042,8 +7633,12 @@
       <c r="J146" s="5">
         <v>47481</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K146" t="str">
+        <f t="shared" si="2"/>
+        <v>2029-12-29</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>395</v>
       </c>
@@ -7074,8 +7669,12 @@
       <c r="J147" s="5">
         <v>47482</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K147" t="str">
+        <f t="shared" si="2"/>
+        <v>2029-12-30</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>394</v>
       </c>
@@ -7106,8 +7705,12 @@
       <c r="J148" s="5">
         <v>47483</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K148" t="str">
+        <f t="shared" si="2"/>
+        <v>2029-12-31</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>394</v>
       </c>
@@ -7138,8 +7741,12 @@
       <c r="J149" s="5">
         <v>47484</v>
       </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K149" t="str">
+        <f t="shared" si="2"/>
+        <v>2030-01-01</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>392</v>
       </c>
@@ -7170,8 +7777,12 @@
       <c r="J150" s="5">
         <v>47485</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K150" t="str">
+        <f t="shared" si="2"/>
+        <v>2030-01-02</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>390</v>
       </c>
@@ -7202,8 +7813,12 @@
       <c r="J151" s="5">
         <v>47486</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K151" t="str">
+        <f t="shared" si="2"/>
+        <v>2030-01-03</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>387</v>
       </c>
@@ -7234,8 +7849,12 @@
       <c r="J152" s="5">
         <v>47487</v>
       </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K152" t="str">
+        <f t="shared" si="2"/>
+        <v>2030-01-04</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>385</v>
       </c>
@@ -7266,8 +7885,12 @@
       <c r="J153" s="5">
         <v>47488</v>
       </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K153" t="str">
+        <f t="shared" si="2"/>
+        <v>2030-01-05</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>384</v>
       </c>
@@ -7298,8 +7921,12 @@
       <c r="J154" s="5">
         <v>47489</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K154" t="str">
+        <f t="shared" si="2"/>
+        <v>2030-01-06</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>382</v>
       </c>
@@ -7330,8 +7957,12 @@
       <c r="J155" s="5">
         <v>47490</v>
       </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K155" t="str">
+        <f t="shared" si="2"/>
+        <v>2030-01-07</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>380</v>
       </c>
@@ -7362,8 +7993,12 @@
       <c r="J156" s="5">
         <v>47491</v>
       </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K156" t="str">
+        <f t="shared" si="2"/>
+        <v>2030-01-08</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>378</v>
       </c>
@@ -7394,8 +8029,12 @@
       <c r="J157" s="5">
         <v>47492</v>
       </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K157" t="str">
+        <f t="shared" si="2"/>
+        <v>2030-01-09</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>376</v>
       </c>
@@ -7426,8 +8065,12 @@
       <c r="J158" s="5">
         <v>47493</v>
       </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K158" t="str">
+        <f t="shared" si="2"/>
+        <v>2030-01-10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>375</v>
       </c>
@@ -7458,8 +8101,12 @@
       <c r="J159" s="5">
         <v>47494</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K159" t="str">
+        <f t="shared" si="2"/>
+        <v>2030-01-11</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>373</v>
       </c>
@@ -7490,8 +8137,12 @@
       <c r="J160" s="5">
         <v>47495</v>
       </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K160" t="str">
+        <f t="shared" si="2"/>
+        <v>2030-01-12</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>372</v>
       </c>
@@ -7522,8 +8173,12 @@
       <c r="J161" s="5">
         <v>47496</v>
       </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K161" t="str">
+        <f t="shared" si="2"/>
+        <v>2030-01-13</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>370</v>
       </c>
@@ -7554,8 +8209,12 @@
       <c r="J162" s="5">
         <v>47497</v>
       </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K162" t="str">
+        <f t="shared" si="2"/>
+        <v>2030-01-14</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>369</v>
       </c>
@@ -7586,8 +8245,12 @@
       <c r="J163" s="5">
         <v>47498</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K163" t="str">
+        <f t="shared" si="2"/>
+        <v>2030-01-15</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>367</v>
       </c>
@@ -7618,8 +8281,12 @@
       <c r="J164" s="5">
         <v>47499</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K164" t="str">
+        <f t="shared" si="2"/>
+        <v>2030-01-16</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>365</v>
       </c>
@@ -7650,8 +8317,12 @@
       <c r="J165" s="5">
         <v>47500</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K165" t="str">
+        <f t="shared" si="2"/>
+        <v>2030-01-17</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>362</v>
       </c>
@@ -7682,8 +8353,12 @@
       <c r="J166" s="5">
         <v>47501</v>
       </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K166" t="str">
+        <f t="shared" si="2"/>
+        <v>2030-01-18</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>360</v>
       </c>
@@ -7714,8 +8389,12 @@
       <c r="J167" s="5">
         <v>47502</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K167" t="str">
+        <f t="shared" si="2"/>
+        <v>2030-01-19</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>358</v>
       </c>
@@ -7746,8 +8425,12 @@
       <c r="J168" s="5">
         <v>47503</v>
       </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K168" t="str">
+        <f t="shared" si="2"/>
+        <v>2030-01-20</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>356</v>
       </c>
@@ -7778,8 +8461,12 @@
       <c r="J169" s="5">
         <v>47504</v>
       </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K169" t="str">
+        <f t="shared" si="2"/>
+        <v>2030-01-21</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>356</v>
       </c>
@@ -7810,8 +8497,12 @@
       <c r="J170" s="5">
         <v>47505</v>
       </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K170" t="str">
+        <f t="shared" si="2"/>
+        <v>2030-01-22</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>354</v>
       </c>
@@ -7842,8 +8533,12 @@
       <c r="J171" s="5">
         <v>47506</v>
       </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K171" t="str">
+        <f t="shared" si="2"/>
+        <v>2030-01-23</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>353</v>
       </c>
@@ -7874,8 +8569,12 @@
       <c r="J172" s="5">
         <v>47507</v>
       </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K172" t="str">
+        <f t="shared" si="2"/>
+        <v>2030-01-24</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>351</v>
       </c>
@@ -7906,8 +8605,12 @@
       <c r="J173" s="5">
         <v>47508</v>
       </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K173" t="str">
+        <f t="shared" si="2"/>
+        <v>2030-01-25</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>350</v>
       </c>
@@ -7938,8 +8641,12 @@
       <c r="J174" s="5">
         <v>47509</v>
       </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K174" t="str">
+        <f t="shared" si="2"/>
+        <v>2030-01-26</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>349</v>
       </c>
@@ -7970,8 +8677,12 @@
       <c r="J175" s="5">
         <v>47510</v>
       </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K175" t="str">
+        <f t="shared" si="2"/>
+        <v>2030-01-27</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>348</v>
       </c>
@@ -8002,8 +8713,12 @@
       <c r="J176" s="5">
         <v>47511</v>
       </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K176" t="str">
+        <f t="shared" si="2"/>
+        <v>2030-01-28</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>347</v>
       </c>
@@ -8034,8 +8749,12 @@
       <c r="J177" s="5">
         <v>47512</v>
       </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K177" t="str">
+        <f t="shared" si="2"/>
+        <v>2030-01-29</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>345</v>
       </c>
@@ -8066,8 +8785,12 @@
       <c r="J178" s="5">
         <v>47513</v>
       </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K178" t="str">
+        <f t="shared" si="2"/>
+        <v>2030-01-30</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>342</v>
       </c>
@@ -8098,8 +8821,12 @@
       <c r="J179" s="5">
         <v>47514</v>
       </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K179" t="str">
+        <f t="shared" si="2"/>
+        <v>2030-01-31</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>341</v>
       </c>
@@ -8130,8 +8857,12 @@
       <c r="J180" s="5">
         <v>47515</v>
       </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K180" t="str">
+        <f t="shared" si="2"/>
+        <v>2030-02-01</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>340</v>
       </c>
@@ -8162,8 +8893,12 @@
       <c r="J181" s="5">
         <v>47516</v>
       </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K181" t="str">
+        <f t="shared" si="2"/>
+        <v>2030-02-02</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>338</v>
       </c>
@@ -8194,8 +8929,12 @@
       <c r="J182" s="5">
         <v>47517</v>
       </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K182" t="str">
+        <f t="shared" si="2"/>
+        <v>2030-02-03</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>336</v>
       </c>
@@ -8226,8 +8965,12 @@
       <c r="J183" s="5">
         <v>47518</v>
       </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K183" t="str">
+        <f t="shared" si="2"/>
+        <v>2030-02-04</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>335</v>
       </c>
@@ -8258,8 +9001,12 @@
       <c r="J184" s="5">
         <v>47519</v>
       </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K184" t="str">
+        <f t="shared" si="2"/>
+        <v>2030-02-05</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>333</v>
       </c>
@@ -8290,8 +9037,12 @@
       <c r="J185" s="5">
         <v>47520</v>
       </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K185" t="str">
+        <f t="shared" si="2"/>
+        <v>2030-02-06</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>331</v>
       </c>
@@ -8322,8 +9073,12 @@
       <c r="J186" s="5">
         <v>47521</v>
       </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K186" t="str">
+        <f t="shared" si="2"/>
+        <v>2030-02-07</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>329</v>
       </c>
@@ -8354,8 +9109,12 @@
       <c r="J187" s="5">
         <v>47522</v>
       </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K187" t="str">
+        <f t="shared" si="2"/>
+        <v>2030-02-08</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>327</v>
       </c>
@@ -8386,8 +9145,12 @@
       <c r="J188" s="5">
         <v>47523</v>
       </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K188" t="str">
+        <f t="shared" si="2"/>
+        <v>2030-02-09</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>326</v>
       </c>
@@ -8418,8 +9181,12 @@
       <c r="J189" s="5">
         <v>47524</v>
       </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K189" t="str">
+        <f t="shared" si="2"/>
+        <v>2030-02-10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>325</v>
       </c>
@@ -8450,8 +9217,12 @@
       <c r="J190" s="5">
         <v>47525</v>
       </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K190" t="str">
+        <f t="shared" si="2"/>
+        <v>2030-02-11</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>324</v>
       </c>
@@ -8482,8 +9253,12 @@
       <c r="J191" s="5">
         <v>47526</v>
       </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K191" t="str">
+        <f t="shared" si="2"/>
+        <v>2030-02-12</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>322</v>
       </c>
@@ -8514,8 +9289,12 @@
       <c r="J192" s="5">
         <v>47527</v>
       </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K192" t="str">
+        <f t="shared" si="2"/>
+        <v>2030-02-13</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>319</v>
       </c>
@@ -8546,8 +9325,12 @@
       <c r="J193" s="5">
         <v>47528</v>
       </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K193" t="str">
+        <f t="shared" si="2"/>
+        <v>2030-02-14</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>318</v>
       </c>
@@ -8578,8 +9361,12 @@
       <c r="J194" s="5">
         <v>47529</v>
       </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K194" t="str">
+        <f t="shared" si="2"/>
+        <v>2030-02-15</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>318</v>
       </c>
@@ -8610,8 +9397,12 @@
       <c r="J195" s="5">
         <v>47530</v>
       </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K195" t="str">
+        <f t="shared" ref="K195:K258" si="3">TEXT(J195, "yyyy-mm-dd")</f>
+        <v>2030-02-16</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>316</v>
       </c>
@@ -8642,8 +9433,12 @@
       <c r="J196" s="5">
         <v>47531</v>
       </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K196" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-02-17</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>315</v>
       </c>
@@ -8674,8 +9469,12 @@
       <c r="J197" s="5">
         <v>47532</v>
       </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K197" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-02-18</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>314</v>
       </c>
@@ -8706,8 +9505,12 @@
       <c r="J198" s="5">
         <v>47533</v>
       </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K198" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-02-19</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>312</v>
       </c>
@@ -8738,8 +9541,12 @@
       <c r="J199" s="5">
         <v>47534</v>
       </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K199" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-02-20</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>311</v>
       </c>
@@ -8770,8 +9577,12 @@
       <c r="J200" s="5">
         <v>47535</v>
       </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K200" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-02-21</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>309</v>
       </c>
@@ -8802,8 +9613,12 @@
       <c r="J201" s="5">
         <v>47536</v>
       </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K201" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-02-22</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>307</v>
       </c>
@@ -8834,8 +9649,12 @@
       <c r="J202" s="5">
         <v>47537</v>
       </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K202" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-02-23</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>305</v>
       </c>
@@ -8866,8 +9685,12 @@
       <c r="J203" s="5">
         <v>47538</v>
       </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K203" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-02-24</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>303</v>
       </c>
@@ -8898,8 +9721,12 @@
       <c r="J204" s="5">
         <v>47539</v>
       </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K204" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-02-25</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>300</v>
       </c>
@@ -8930,8 +9757,12 @@
       <c r="J205" s="5">
         <v>47540</v>
       </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K205" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-02-26</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>299</v>
       </c>
@@ -8962,8 +9793,12 @@
       <c r="J206" s="5">
         <v>47541</v>
       </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K206" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-02-27</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>298</v>
       </c>
@@ -8994,8 +9829,12 @@
       <c r="J207" s="5">
         <v>47542</v>
       </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K207" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-02-28</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>297</v>
       </c>
@@ -9026,8 +9865,12 @@
       <c r="J208" s="5">
         <v>47543</v>
       </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K208" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-03-01</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>295</v>
       </c>
@@ -9058,8 +9901,12 @@
       <c r="J209" s="5">
         <v>47544</v>
       </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K209" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-03-02</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>293</v>
       </c>
@@ -9090,8 +9937,12 @@
       <c r="J210" s="5">
         <v>47545</v>
       </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K210" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-03-03</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>292</v>
       </c>
@@ -9122,8 +9973,12 @@
       <c r="J211" s="5">
         <v>47546</v>
       </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K211" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-03-04</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>291</v>
       </c>
@@ -9154,8 +10009,12 @@
       <c r="J212" s="5">
         <v>47547</v>
       </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K212" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-03-05</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>289</v>
       </c>
@@ -9186,8 +10045,12 @@
       <c r="J213" s="5">
         <v>47548</v>
       </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K213" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-03-06</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>288</v>
       </c>
@@ -9218,8 +10081,12 @@
       <c r="J214" s="5">
         <v>47549</v>
       </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K214" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-03-07</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>286</v>
       </c>
@@ -9250,8 +10117,12 @@
       <c r="J215" s="5">
         <v>47550</v>
       </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K215" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-03-08</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>285</v>
       </c>
@@ -9282,8 +10153,12 @@
       <c r="J216" s="5">
         <v>47551</v>
       </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K216" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-03-09</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>283</v>
       </c>
@@ -9314,8 +10189,12 @@
       <c r="J217" s="5">
         <v>47552</v>
       </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K217" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-03-10</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>281</v>
       </c>
@@ -9346,8 +10225,12 @@
       <c r="J218" s="5">
         <v>47553</v>
       </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K218" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-03-11</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>279</v>
       </c>
@@ -9378,8 +10261,12 @@
       <c r="J219" s="5">
         <v>47554</v>
       </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K219" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-03-12</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>278</v>
       </c>
@@ -9410,8 +10297,12 @@
       <c r="J220" s="5">
         <v>47555</v>
       </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K220" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-03-13</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>276</v>
       </c>
@@ -9442,8 +10333,12 @@
       <c r="J221" s="5">
         <v>47556</v>
       </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K221" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-03-14</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>275</v>
       </c>
@@ -9474,8 +10369,12 @@
       <c r="J222" s="5">
         <v>47557</v>
       </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K222" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-03-15</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>273</v>
       </c>
@@ -9506,8 +10405,12 @@
       <c r="J223" s="5">
         <v>47558</v>
       </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K223" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-03-16</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>270</v>
       </c>
@@ -9538,8 +10441,12 @@
       <c r="J224" s="5">
         <v>47559</v>
       </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K224" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-03-17</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>268</v>
       </c>
@@ -9570,8 +10477,12 @@
       <c r="J225" s="5">
         <v>47560</v>
       </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K225" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-03-18</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>266</v>
       </c>
@@ -9602,8 +10513,12 @@
       <c r="J226" s="5">
         <v>47561</v>
       </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K226" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-03-19</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>264</v>
       </c>
@@ -9634,8 +10549,12 @@
       <c r="J227" s="5">
         <v>47562</v>
       </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K227" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-03-20</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>262</v>
       </c>
@@ -9666,8 +10585,12 @@
       <c r="J228" s="5">
         <v>47563</v>
       </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K228" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-03-21</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>260</v>
       </c>
@@ -9698,8 +10621,12 @@
       <c r="J229" s="5">
         <v>47564</v>
       </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K229" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-03-22</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>257</v>
       </c>
@@ -9730,8 +10657,12 @@
       <c r="J230" s="5">
         <v>47565</v>
       </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K230" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-03-23</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>255</v>
       </c>
@@ -9762,8 +10693,12 @@
       <c r="J231" s="5">
         <v>47566</v>
       </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K231" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-03-24</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>253</v>
       </c>
@@ -9794,8 +10729,12 @@
       <c r="J232" s="5">
         <v>47567</v>
       </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K232" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-03-25</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>252</v>
       </c>
@@ -9826,8 +10765,12 @@
       <c r="J233" s="5">
         <v>47568</v>
       </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K233" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-03-26</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>251</v>
       </c>
@@ -9858,8 +10801,12 @@
       <c r="J234" s="5">
         <v>47569</v>
       </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K234" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-03-27</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>248</v>
       </c>
@@ -9890,8 +10837,12 @@
       <c r="J235" s="5">
         <v>47570</v>
       </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K235" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-03-28</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>246</v>
       </c>
@@ -9922,8 +10873,12 @@
       <c r="J236" s="5">
         <v>47571</v>
       </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K236" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-03-29</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>245</v>
       </c>
@@ -9954,8 +10909,12 @@
       <c r="J237" s="5">
         <v>47572</v>
       </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K237" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-03-30</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>244</v>
       </c>
@@ -9986,8 +10945,12 @@
       <c r="J238" s="5">
         <v>47573</v>
       </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K238" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-03-31</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>243</v>
       </c>
@@ -10018,8 +10981,12 @@
       <c r="J239" s="5">
         <v>47574</v>
       </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K239" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-04-01</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>241</v>
       </c>
@@ -10050,8 +11017,12 @@
       <c r="J240" s="5">
         <v>47575</v>
       </c>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K240" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-04-02</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>239</v>
       </c>
@@ -10082,8 +11053,12 @@
       <c r="J241" s="5">
         <v>47576</v>
       </c>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K241" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-04-03</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>238</v>
       </c>
@@ -10114,8 +11089,12 @@
       <c r="J242" s="5">
         <v>47577</v>
       </c>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K242" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-04-04</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>237</v>
       </c>
@@ -10146,8 +11125,12 @@
       <c r="J243" s="5">
         <v>47578</v>
       </c>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K243" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-04-05</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>235</v>
       </c>
@@ -10178,8 +11161,12 @@
       <c r="J244" s="5">
         <v>47579</v>
       </c>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K244" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-04-06</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>233</v>
       </c>
@@ -10210,8 +11197,12 @@
       <c r="J245" s="5">
         <v>47580</v>
       </c>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K245" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-04-07</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>232</v>
       </c>
@@ -10242,8 +11233,12 @@
       <c r="J246" s="5">
         <v>47581</v>
       </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K246" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-04-08</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>230</v>
       </c>
@@ -10274,8 +11269,12 @@
       <c r="J247" s="5">
         <v>47582</v>
       </c>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K247" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-04-09</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>228</v>
       </c>
@@ -10306,8 +11305,12 @@
       <c r="J248" s="5">
         <v>47583</v>
       </c>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K248" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-04-10</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>226</v>
       </c>
@@ -10338,8 +11341,12 @@
       <c r="J249" s="5">
         <v>47584</v>
       </c>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K249" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-04-11</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>224</v>
       </c>
@@ -10370,8 +11377,12 @@
       <c r="J250" s="5">
         <v>47585</v>
       </c>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K250" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-04-12</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>222</v>
       </c>
@@ -10402,8 +11413,12 @@
       <c r="J251" s="5">
         <v>47586</v>
       </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K251" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-04-13</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>220</v>
       </c>
@@ -10434,8 +11449,12 @@
       <c r="J252" s="5">
         <v>47587</v>
       </c>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K252" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-04-14</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>218</v>
       </c>
@@ -10466,8 +11485,12 @@
       <c r="J253" s="5">
         <v>47588</v>
       </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K253" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-04-15</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>216</v>
       </c>
@@ -10498,8 +11521,12 @@
       <c r="J254" s="5">
         <v>47589</v>
       </c>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K254" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-04-16</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>214</v>
       </c>
@@ -10530,8 +11557,12 @@
       <c r="J255" s="5">
         <v>47590</v>
       </c>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K255" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-04-17</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>212</v>
       </c>
@@ -10562,8 +11593,12 @@
       <c r="J256" s="5">
         <v>47591</v>
       </c>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K256" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-04-18</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>210</v>
       </c>
@@ -10594,8 +11629,12 @@
       <c r="J257" s="5">
         <v>47592</v>
       </c>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K257" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-04-19</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>209</v>
       </c>
@@ -10626,8 +11665,12 @@
       <c r="J258" s="5">
         <v>47593</v>
       </c>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K258" t="str">
+        <f t="shared" si="3"/>
+        <v>2030-04-20</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>208</v>
       </c>
@@ -10658,8 +11701,12 @@
       <c r="J259" s="5">
         <v>47594</v>
       </c>
-    </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K259" t="str">
+        <f t="shared" ref="K259:K322" si="4">TEXT(J259, "yyyy-mm-dd")</f>
+        <v>2030-04-21</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>206</v>
       </c>
@@ -10690,8 +11737,12 @@
       <c r="J260" s="5">
         <v>47595</v>
       </c>
-    </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K260" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-04-22</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>204</v>
       </c>
@@ -10722,8 +11773,12 @@
       <c r="J261" s="5">
         <v>47596</v>
       </c>
-    </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K261" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-04-23</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>202</v>
       </c>
@@ -10754,8 +11809,12 @@
       <c r="J262" s="5">
         <v>47597</v>
       </c>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K262" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-04-24</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>200</v>
       </c>
@@ -10786,8 +11845,12 @@
       <c r="J263" s="5">
         <v>47598</v>
       </c>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K263" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-04-25</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>199</v>
       </c>
@@ -10818,8 +11881,12 @@
       <c r="J264" s="5">
         <v>47599</v>
       </c>
-    </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K264" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-04-26</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>197</v>
       </c>
@@ -10850,8 +11917,12 @@
       <c r="J265" s="5">
         <v>47600</v>
       </c>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K265" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-04-27</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>195</v>
       </c>
@@ -10882,8 +11953,12 @@
       <c r="J266" s="5">
         <v>47601</v>
       </c>
-    </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K266" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-04-28</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>192</v>
       </c>
@@ -10914,8 +11989,12 @@
       <c r="J267" s="5">
         <v>47602</v>
       </c>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K267" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-04-29</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>190</v>
       </c>
@@ -10946,8 +12025,12 @@
       <c r="J268" s="5">
         <v>47603</v>
       </c>
-    </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K268" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-04-30</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>188</v>
       </c>
@@ -10978,8 +12061,12 @@
       <c r="J269" s="5">
         <v>47604</v>
       </c>
-    </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K269" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-05-01</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>185</v>
       </c>
@@ -11010,8 +12097,12 @@
       <c r="J270" s="5">
         <v>47605</v>
       </c>
-    </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K270" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-05-02</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>182</v>
       </c>
@@ -11042,8 +12133,12 @@
       <c r="J271" s="5">
         <v>47606</v>
       </c>
-    </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K271" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-05-03</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>181</v>
       </c>
@@ -11074,8 +12169,12 @@
       <c r="J272" s="5">
         <v>47607</v>
       </c>
-    </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K272" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-05-04</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>180</v>
       </c>
@@ -11106,8 +12205,12 @@
       <c r="J273" s="5">
         <v>47608</v>
       </c>
-    </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K273" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-05-05</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>178</v>
       </c>
@@ -11138,8 +12241,12 @@
       <c r="J274" s="5">
         <v>47609</v>
       </c>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K274" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-05-06</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>176</v>
       </c>
@@ -11170,8 +12277,12 @@
       <c r="J275" s="5">
         <v>47610</v>
       </c>
-    </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K275" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-05-07</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>174</v>
       </c>
@@ -11202,8 +12313,12 @@
       <c r="J276" s="5">
         <v>47611</v>
       </c>
-    </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K276" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-05-08</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>172</v>
       </c>
@@ -11234,8 +12349,12 @@
       <c r="J277" s="5">
         <v>47612</v>
       </c>
-    </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K277" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-05-09</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>171</v>
       </c>
@@ -11266,8 +12385,12 @@
       <c r="J278" s="5">
         <v>47613</v>
       </c>
-    </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K278" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-05-10</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>170</v>
       </c>
@@ -11298,8 +12421,12 @@
       <c r="J279" s="5">
         <v>47614</v>
       </c>
-    </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K279" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-05-11</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>170</v>
       </c>
@@ -11330,8 +12457,12 @@
       <c r="J280" s="5">
         <v>47615</v>
       </c>
-    </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K280" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-05-12</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>168</v>
       </c>
@@ -11362,8 +12493,12 @@
       <c r="J281" s="5">
         <v>47616</v>
       </c>
-    </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K281" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-05-13</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>166</v>
       </c>
@@ -11394,8 +12529,12 @@
       <c r="J282" s="5">
         <v>47617</v>
       </c>
-    </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K282" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-05-14</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>164</v>
       </c>
@@ -11426,8 +12565,12 @@
       <c r="J283" s="5">
         <v>47618</v>
       </c>
-    </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K283" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-05-15</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>161</v>
       </c>
@@ -11458,8 +12601,12 @@
       <c r="J284" s="5">
         <v>47619</v>
       </c>
-    </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K284" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-05-16</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>159</v>
       </c>
@@ -11490,8 +12637,12 @@
       <c r="J285" s="5">
         <v>47620</v>
       </c>
-    </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K285" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-05-17</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>157</v>
       </c>
@@ -11522,8 +12673,12 @@
       <c r="J286" s="5">
         <v>47621</v>
       </c>
-    </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K286" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-05-18</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>155</v>
       </c>
@@ -11554,8 +12709,12 @@
       <c r="J287" s="5">
         <v>47622</v>
       </c>
-    </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K287" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-05-19</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>153</v>
       </c>
@@ -11586,8 +12745,12 @@
       <c r="J288" s="5">
         <v>47623</v>
       </c>
-    </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K288" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-05-20</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>153</v>
       </c>
@@ -11618,8 +12781,12 @@
       <c r="J289" s="5">
         <v>47624</v>
       </c>
-    </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K289" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-05-21</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>151</v>
       </c>
@@ -11650,8 +12817,12 @@
       <c r="J290" s="5">
         <v>47625</v>
       </c>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K290" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-05-22</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>149</v>
       </c>
@@ -11682,8 +12853,12 @@
       <c r="J291" s="5">
         <v>47626</v>
       </c>
-    </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K291" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-05-23</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>147</v>
       </c>
@@ -11714,8 +12889,12 @@
       <c r="J292" s="5">
         <v>47627</v>
       </c>
-    </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K292" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-05-24</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>145</v>
       </c>
@@ -11746,8 +12925,12 @@
       <c r="J293" s="5">
         <v>47628</v>
       </c>
-    </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K293" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-05-25</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>144</v>
       </c>
@@ -11778,8 +12961,12 @@
       <c r="J294" s="5">
         <v>47629</v>
       </c>
-    </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K294" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-05-26</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>143</v>
       </c>
@@ -11810,8 +12997,12 @@
       <c r="J295" s="5">
         <v>47630</v>
       </c>
-    </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K295" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-05-27</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>141</v>
       </c>
@@ -11842,8 +13033,12 @@
       <c r="J296" s="5">
         <v>47631</v>
       </c>
-    </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K296" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-05-28</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>139</v>
       </c>
@@ -11874,8 +13069,12 @@
       <c r="J297" s="5">
         <v>47632</v>
       </c>
-    </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K297" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-05-29</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>137</v>
       </c>
@@ -11906,8 +13105,12 @@
       <c r="J298" s="5">
         <v>47633</v>
       </c>
-    </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K298" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-05-30</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>134</v>
       </c>
@@ -11938,8 +13141,12 @@
       <c r="J299" s="5">
         <v>47634</v>
       </c>
-    </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K299" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-05-31</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>133</v>
       </c>
@@ -11970,8 +13177,12 @@
       <c r="J300" s="5">
         <v>47635</v>
       </c>
-    </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K300" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-06-01</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>131</v>
       </c>
@@ -12002,8 +13213,12 @@
       <c r="J301" s="5">
         <v>47636</v>
       </c>
-    </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K301" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-06-02</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>128</v>
       </c>
@@ -12034,8 +13249,12 @@
       <c r="J302" s="5">
         <v>47637</v>
       </c>
-    </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K302" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-06-03</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>126</v>
       </c>
@@ -12066,8 +13285,12 @@
       <c r="J303" s="5">
         <v>47638</v>
       </c>
-    </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K303" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-06-04</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>124</v>
       </c>
@@ -12098,8 +13321,12 @@
       <c r="J304" s="5">
         <v>47639</v>
       </c>
-    </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K304" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-06-05</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>121</v>
       </c>
@@ -12130,8 +13357,12 @@
       <c r="J305" s="5">
         <v>47640</v>
       </c>
-    </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K305" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-06-06</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>119</v>
       </c>
@@ -12162,8 +13393,12 @@
       <c r="J306" s="5">
         <v>47641</v>
       </c>
-    </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K306" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-06-07</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>117</v>
       </c>
@@ -12194,8 +13429,12 @@
       <c r="J307" s="5">
         <v>47642</v>
       </c>
-    </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K307" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-06-08</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>114</v>
       </c>
@@ -12226,8 +13465,12 @@
       <c r="J308" s="5">
         <v>47643</v>
       </c>
-    </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K308" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-06-09</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>112</v>
       </c>
@@ -12258,8 +13501,12 @@
       <c r="J309" s="5">
         <v>47644</v>
       </c>
-    </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K309" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-06-10</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>110</v>
       </c>
@@ -12290,8 +13537,12 @@
       <c r="J310" s="5">
         <v>47645</v>
       </c>
-    </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K310" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-06-11</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>109</v>
       </c>
@@ -12322,8 +13573,12 @@
       <c r="J311" s="5">
         <v>47646</v>
       </c>
-    </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K311" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-06-12</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>107</v>
       </c>
@@ -12354,8 +13609,12 @@
       <c r="J312" s="5">
         <v>47647</v>
       </c>
-    </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K312" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-06-13</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>105</v>
       </c>
@@ -12386,8 +13645,12 @@
       <c r="J313" s="5">
         <v>47648</v>
       </c>
-    </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K313" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-06-14</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>103</v>
       </c>
@@ -12418,8 +13681,12 @@
       <c r="J314" s="5">
         <v>47649</v>
       </c>
-    </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K314" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-06-15</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>102</v>
       </c>
@@ -12450,8 +13717,12 @@
       <c r="J315" s="5">
         <v>47650</v>
       </c>
-    </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K315" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-06-16</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>100</v>
       </c>
@@ -12482,8 +13753,12 @@
       <c r="J316" s="5">
         <v>47651</v>
       </c>
-    </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K316" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-06-17</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>98</v>
       </c>
@@ -12514,8 +13789,12 @@
       <c r="J317" s="5">
         <v>47652</v>
       </c>
-    </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K317" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-06-18</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>94</v>
       </c>
@@ -12546,8 +13825,12 @@
       <c r="J318" s="5">
         <v>47653</v>
       </c>
-    </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K318" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-06-19</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>95</v>
       </c>
@@ -12578,8 +13861,12 @@
       <c r="J319" s="5">
         <v>47654</v>
       </c>
-    </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K319" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-06-20</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>94</v>
       </c>
@@ -12610,8 +13897,12 @@
       <c r="J320" s="5">
         <v>47655</v>
       </c>
-    </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K320" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-06-21</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>92</v>
       </c>
@@ -12642,8 +13933,12 @@
       <c r="J321" s="5">
         <v>47656</v>
       </c>
-    </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K321" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-06-22</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>90</v>
       </c>
@@ -12674,8 +13969,12 @@
       <c r="J322" s="5">
         <v>47657</v>
       </c>
-    </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K322" t="str">
+        <f t="shared" si="4"/>
+        <v>2030-06-23</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>87</v>
       </c>
@@ -12706,8 +14005,12 @@
       <c r="J323" s="5">
         <v>47658</v>
       </c>
-    </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K323" t="str">
+        <f t="shared" ref="K323:K356" si="5">TEXT(J323, "yyyy-mm-dd")</f>
+        <v>2030-06-24</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>85</v>
       </c>
@@ -12738,8 +14041,12 @@
       <c r="J324" s="5">
         <v>47659</v>
       </c>
-    </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K324" t="str">
+        <f t="shared" si="5"/>
+        <v>2030-06-25</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>83</v>
       </c>
@@ -12770,8 +14077,12 @@
       <c r="J325" s="5">
         <v>47660</v>
       </c>
-    </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K325" t="str">
+        <f t="shared" si="5"/>
+        <v>2030-06-26</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>82</v>
       </c>
@@ -12802,8 +14113,12 @@
       <c r="J326" s="5">
         <v>47661</v>
       </c>
-    </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K326" t="str">
+        <f t="shared" si="5"/>
+        <v>2030-06-27</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>79</v>
       </c>
@@ -12834,8 +14149,12 @@
       <c r="J327" s="5">
         <v>47662</v>
       </c>
-    </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K327" t="str">
+        <f t="shared" si="5"/>
+        <v>2030-06-28</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>77</v>
       </c>
@@ -12866,8 +14185,12 @@
       <c r="J328" s="5">
         <v>47663</v>
       </c>
-    </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K328" t="str">
+        <f t="shared" si="5"/>
+        <v>2030-06-29</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>74</v>
       </c>
@@ -12898,8 +14221,12 @@
       <c r="J329" s="5">
         <v>47664</v>
       </c>
-    </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K329" t="str">
+        <f t="shared" si="5"/>
+        <v>2030-06-30</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>72</v>
       </c>
@@ -12930,8 +14257,12 @@
       <c r="J330" s="5">
         <v>47665</v>
       </c>
-    </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K330" t="str">
+        <f t="shared" si="5"/>
+        <v>2030-07-01</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>71</v>
       </c>
@@ -12962,8 +14293,12 @@
       <c r="J331" s="5">
         <v>47666</v>
       </c>
-    </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K331" t="str">
+        <f t="shared" si="5"/>
+        <v>2030-07-02</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>68</v>
       </c>
@@ -12994,8 +14329,12 @@
       <c r="J332" s="5">
         <v>47667</v>
       </c>
-    </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K332" t="str">
+        <f t="shared" si="5"/>
+        <v>2030-07-03</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>65</v>
       </c>
@@ -13026,8 +14365,12 @@
       <c r="J333" s="5">
         <v>47668</v>
       </c>
-    </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K333" t="str">
+        <f t="shared" si="5"/>
+        <v>2030-07-04</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>63</v>
       </c>
@@ -13058,8 +14401,12 @@
       <c r="J334" s="5">
         <v>47669</v>
       </c>
-    </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K334" t="str">
+        <f t="shared" si="5"/>
+        <v>2030-07-05</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>62</v>
       </c>
@@ -13090,8 +14437,12 @@
       <c r="J335" s="5">
         <v>47670</v>
       </c>
-    </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K335" t="str">
+        <f t="shared" si="5"/>
+        <v>2030-07-06</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>59</v>
       </c>
@@ -13122,8 +14473,12 @@
       <c r="J336" s="5">
         <v>47671</v>
       </c>
-    </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K336" t="str">
+        <f t="shared" si="5"/>
+        <v>2030-07-07</v>
+      </c>
+    </row>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>56</v>
       </c>
@@ -13154,8 +14509,12 @@
       <c r="J337" s="5">
         <v>47672</v>
       </c>
-    </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K337" t="str">
+        <f t="shared" si="5"/>
+        <v>2030-07-08</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>54</v>
       </c>
@@ -13186,8 +14545,12 @@
       <c r="J338" s="5">
         <v>47673</v>
       </c>
-    </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K338" t="str">
+        <f t="shared" si="5"/>
+        <v>2030-07-09</v>
+      </c>
+    </row>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>51</v>
       </c>
@@ -13218,8 +14581,12 @@
       <c r="J339" s="5">
         <v>47674</v>
       </c>
-    </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K339" t="str">
+        <f t="shared" si="5"/>
+        <v>2030-07-10</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>49</v>
       </c>
@@ -13250,8 +14617,12 @@
       <c r="J340" s="5">
         <v>47675</v>
       </c>
-    </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K340" t="str">
+        <f t="shared" si="5"/>
+        <v>2030-07-11</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>46</v>
       </c>
@@ -13282,8 +14653,12 @@
       <c r="J341" s="5">
         <v>47676</v>
       </c>
-    </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K341" t="str">
+        <f t="shared" si="5"/>
+        <v>2030-07-12</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>44</v>
       </c>
@@ -13314,8 +14689,12 @@
       <c r="J342" s="5">
         <v>47677</v>
       </c>
-    </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K342" t="str">
+        <f t="shared" si="5"/>
+        <v>2030-07-13</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>41</v>
       </c>
@@ -13346,8 +14725,12 @@
       <c r="J343" s="5">
         <v>47678</v>
       </c>
-    </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K343" t="str">
+        <f t="shared" si="5"/>
+        <v>2030-07-14</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>39</v>
       </c>
@@ -13378,8 +14761,12 @@
       <c r="J344" s="5">
         <v>47679</v>
       </c>
-    </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K344" t="str">
+        <f t="shared" si="5"/>
+        <v>2030-07-15</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>37</v>
       </c>
@@ -13410,8 +14797,12 @@
       <c r="J345" s="5">
         <v>47680</v>
       </c>
-    </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K345" t="str">
+        <f t="shared" si="5"/>
+        <v>2030-07-16</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>34</v>
       </c>
@@ -13442,8 +14833,12 @@
       <c r="J346" s="5">
         <v>47681</v>
       </c>
-    </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K346" t="str">
+        <f t="shared" si="5"/>
+        <v>2030-07-17</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>32</v>
       </c>
@@ -13474,8 +14869,12 @@
       <c r="J347" s="5">
         <v>47682</v>
       </c>
-    </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K347" t="str">
+        <f t="shared" si="5"/>
+        <v>2030-07-18</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>29</v>
       </c>
@@ -13506,8 +14905,12 @@
       <c r="J348" s="5">
         <v>47683</v>
       </c>
-    </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K348" t="str">
+        <f t="shared" si="5"/>
+        <v>2030-07-19</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>27</v>
       </c>
@@ -13538,8 +14941,12 @@
       <c r="J349" s="5">
         <v>47684</v>
       </c>
-    </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K349" t="str">
+        <f t="shared" si="5"/>
+        <v>2030-07-20</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>24</v>
       </c>
@@ -13570,8 +14977,12 @@
       <c r="J350" s="5">
         <v>47685</v>
       </c>
-    </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K350" t="str">
+        <f t="shared" si="5"/>
+        <v>2030-07-21</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>21</v>
       </c>
@@ -13602,8 +15013,12 @@
       <c r="J351" s="5">
         <v>47686</v>
       </c>
-    </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K351" t="str">
+        <f t="shared" si="5"/>
+        <v>2030-07-22</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>18</v>
       </c>
@@ -13634,8 +15049,12 @@
       <c r="J352" s="5">
         <v>47687</v>
       </c>
-    </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K352" t="str">
+        <f t="shared" si="5"/>
+        <v>2030-07-23</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>15</v>
       </c>
@@ -13666,8 +15085,12 @@
       <c r="J353" s="5">
         <v>47688</v>
       </c>
-    </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K353" t="str">
+        <f t="shared" si="5"/>
+        <v>2030-07-24</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>12</v>
       </c>
@@ -13698,8 +15121,12 @@
       <c r="J354" s="5">
         <v>47689</v>
       </c>
-    </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K354" t="str">
+        <f t="shared" si="5"/>
+        <v>2030-07-25</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>9</v>
       </c>
@@ -13730,8 +15157,12 @@
       <c r="J355" s="5">
         <v>47690</v>
       </c>
-    </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K355" t="str">
+        <f t="shared" si="5"/>
+        <v>2030-07-26</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>6</v>
       </c>
@@ -13761,6 +15192,10 @@
       </c>
       <c r="J356" s="5">
         <v>47691</v>
+      </c>
+      <c r="K356" t="str">
+        <f t="shared" si="5"/>
+        <v>2030-07-27</v>
       </c>
     </row>
   </sheetData>
